--- a/file/temp/学工_1.3_外供数据检查确认/业务线缺.xlsx
+++ b/file/temp/学工_1.3_外供数据检查确认/业务线缺.xlsx
@@ -25,7 +25,7 @@
     <t>业务单元</t>
   </si>
   <si>
-    <t>所属表</t>
+    <t>表/视图名称</t>
   </si>
   <si>
     <t>字段名</t>
